--- a/PCB/sch/Baby_Mon_V0/bomV0.xlsx
+++ b/PCB/sch/Baby_Mon_V0/bomV0.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kangmin\Documents\GitHub\Baby_monitor_wearable\PCB\sch\Baby_Mon_V0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xukan\Documents\GitHub\Baby_monitor_wearable\PCB\sch\Baby_Mon_V0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E29FCD6-C35D-4E34-B3A4-E12F95DB1853}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92353E1-90BD-498E-99F8-00BDB8DD00C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{BCC8DDE4-0369-41A4-BB72-9E42FF855DBC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BCC8DDE4-0369-41A4-BB72-9E42FF855DBC}"/>
   </bookViews>
   <sheets>
     <sheet name="baby_monitor_v0" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">baby_monitor_v0!$A$1:$X$18</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">baby_monitor_v0!$A$1:$Z$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="150">
   <si>
     <t>Qty</t>
   </si>
@@ -406,6 +406,96 @@
   </si>
   <si>
     <t>Mouser</t>
+  </si>
+  <si>
+    <t>Mouser Part Number</t>
+  </si>
+  <si>
+    <t>Manufacturer Part Number</t>
+  </si>
+  <si>
+    <t>949-NRF5340QKAAAB0R</t>
+  </si>
+  <si>
+    <t>534-3000</t>
+  </si>
+  <si>
+    <t>611-KMR421GULCLFS</t>
+  </si>
+  <si>
+    <t>485-3341</t>
+  </si>
+  <si>
+    <t>700-MAX30102EFD+T</t>
+  </si>
+  <si>
+    <t>MAX30102EFD+T</t>
+  </si>
+  <si>
+    <t>700-MAX30205MTA+T</t>
+  </si>
+  <si>
+    <t>MAX30205MTA+T</t>
+  </si>
+  <si>
+    <t>595-TPS79318DBVR</t>
+  </si>
+  <si>
+    <t>TPS79318DBVR</t>
+  </si>
+  <si>
+    <t>81-XRCGB32M000F1H19R</t>
+  </si>
+  <si>
+    <t>XRCGB32M000F1H19R0</t>
+  </si>
+  <si>
+    <t>815-CA311012R45GS1FT</t>
+  </si>
+  <si>
+    <t>AMCA31-101-2R450G-S1F-T3</t>
+  </si>
+  <si>
+    <t>603-RC0402FR-074K7L</t>
+  </si>
+  <si>
+    <t>RC0402FR-074K7L</t>
+  </si>
+  <si>
+    <t>810-MLG1005S2N2BT000</t>
+  </si>
+  <si>
+    <t>MLG1005S2N2BT000</t>
+  </si>
+  <si>
+    <t>963-LBMF1608T100K</t>
+  </si>
+  <si>
+    <t>LBMF1608T100K</t>
+  </si>
+  <si>
+    <t>963-HK100515NJ-T</t>
+  </si>
+  <si>
+    <t>HK100515NJ-T</t>
+  </si>
+  <si>
+    <t>500R07S0R7AV4T</t>
+  </si>
+  <si>
+    <t>609-500R07S0R7AV4T</t>
+  </si>
+  <si>
+    <t>80-C0402C104K3P</t>
+  </si>
+  <si>
+    <t>C0402C104K3PACTU</t>
+  </si>
+  <si>
+    <t>581-04025C102K</t>
+  </si>
+  <si>
+    <t>04025C102KAT2A</t>
   </si>
 </sst>
 </file>
@@ -448,7 +538,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="24">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -530,14 +626,16 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{02625DE9-354B-4795-88AB-5C671C00C1A7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="26">
-    <queryTableFields count="24">
+  <queryTableRefresh nextId="28">
+    <queryTableFields count="26">
       <queryTableField id="1" name="Qty" tableColumnId="1"/>
       <queryTableField id="2" name="Value" tableColumnId="2"/>
       <queryTableField id="3" name="Device" tableColumnId="3"/>
       <queryTableField id="4" name="Package" tableColumnId="4"/>
       <queryTableField id="5" name="Parts" tableColumnId="5"/>
       <queryTableField id="13" name="DIGIKEY_PART" tableColumnId="13"/>
+      <queryTableField id="26" dataBound="0" tableColumnId="25"/>
+      <queryTableField id="27" dataBound="0" tableColumnId="26"/>
       <queryTableField id="6" name="Description" tableColumnId="6"/>
       <queryTableField id="7" name="AVAILABILITY" tableColumnId="7"/>
       <queryTableField id="8" name="BUILT_BY" tableColumnId="8"/>
@@ -562,36 +660,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DCBC37B5-03D0-4EB2-A5D3-2BE9A4EC85B5}" name="baby_monitor_v0" displayName="baby_monitor_v0" ref="A1:X18" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:X18" xr:uid="{743371DE-4663-4604-8EB5-9C9AF1316CE2}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DCBC37B5-03D0-4EB2-A5D3-2BE9A4EC85B5}" name="baby_monitor_v0" displayName="baby_monitor_v0" ref="A1:Z18" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:Z18" xr:uid="{743371DE-4663-4604-8EB5-9C9AF1316CE2}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z18">
     <sortCondition ref="E1:E18"/>
   </sortState>
-  <tableColumns count="24">
+  <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{65F49880-875E-4262-850C-31C2907F5285}" uniqueName="1" name="Qty" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{659267D7-18BF-4592-9020-E75EE4D4E1CC}" uniqueName="2" name="Value" queryTableFieldId="2" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{904093FF-DF2B-4311-8E9E-B3B89A3F4598}" uniqueName="3" name="Device" queryTableFieldId="3" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{69D03C1A-6A08-4A60-85ED-92A0AF33684B}" uniqueName="4" name="Package" queryTableFieldId="4" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{17C17099-FAA0-4F8D-B66E-C99C768605FD}" uniqueName="5" name="Parts" queryTableFieldId="5" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{8C6FA50B-BE1B-42A6-A005-CFD00B5523CE}" uniqueName="13" name="DIGIKEY_PART" queryTableFieldId="13" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{F33F2AD8-4829-4043-B615-5B26604A4E10}" uniqueName="6" name="Description" queryTableFieldId="6" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{213B9197-73E6-4A3A-BCF3-2240F52377CD}" uniqueName="7" name="AVAILABILITY" queryTableFieldId="7" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{A8B0EDCB-8702-46D0-A711-8A1D0BD280C5}" uniqueName="8" name="BUILT_BY" queryTableFieldId="8" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{6CAF41E4-8F2C-420C-A21B-64C2A3127CB3}" uniqueName="9" name="COPYRIGHT" queryTableFieldId="9" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{85A1F6FC-DD74-4779-BDC8-9349873F8F6F}" uniqueName="10" name="DESCRIPTION.1" queryTableFieldId="10" dataDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{FC88E6FE-106A-4C46-83A2-B9041CEAE688}" uniqueName="11" name="DESIGNER" queryTableFieldId="11" dataDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{09E21C03-8184-439B-B718-7F5D04555D42}" uniqueName="12" name="DIGI-KEY_PART_NUMBER" queryTableFieldId="12" dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{0FBD3F8A-1E59-4D62-BB8A-E594F9C7CFA7}" uniqueName="14" name="MANUFACTURER_PART_NUMBER" queryTableFieldId="14" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{10B58A88-5011-4127-BC00-DC6554CFF74D}" uniqueName="15" name="MF" queryTableFieldId="15" dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{D1A26477-FADE-4394-B7D9-9673F65B23AA}" uniqueName="16" name="MP" queryTableFieldId="16" dataDxfId="8"/>
-    <tableColumn id="17" xr3:uid="{62ABE47B-07FF-4FFE-825C-7F3BB21B06FD}" uniqueName="17" name="PACKAGE.1" queryTableFieldId="17" dataDxfId="7"/>
-    <tableColumn id="18" xr3:uid="{3D98CA43-5CB2-4C4D-B9F0-A73B69508FE0}" uniqueName="18" name="PRICE" queryTableFieldId="18" dataDxfId="6"/>
-    <tableColumn id="19" xr3:uid="{23F320B4-AE12-4494-BAC2-CD8E697DD3E0}" uniqueName="19" name="PURCHASE-URL" queryTableFieldId="19" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{659267D7-18BF-4592-9020-E75EE4D4E1CC}" uniqueName="2" name="Value" queryTableFieldId="2" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{904093FF-DF2B-4311-8E9E-B3B89A3F4598}" uniqueName="3" name="Device" queryTableFieldId="3" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{69D03C1A-6A08-4A60-85ED-92A0AF33684B}" uniqueName="4" name="Package" queryTableFieldId="4" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{17C17099-FAA0-4F8D-B66E-C99C768605FD}" uniqueName="5" name="Parts" queryTableFieldId="5" dataDxfId="20"/>
+    <tableColumn id="13" xr3:uid="{8C6FA50B-BE1B-42A6-A005-CFD00B5523CE}" uniqueName="13" name="DIGIKEY_PART" queryTableFieldId="13" dataDxfId="19"/>
+    <tableColumn id="25" xr3:uid="{7B5353B9-D132-41E3-8B72-0BF640DDD29F}" uniqueName="25" name="Mouser Part Number" queryTableFieldId="26" dataDxfId="1"/>
+    <tableColumn id="26" xr3:uid="{C39C4901-A63C-406A-A153-10BE944F6BE7}" uniqueName="26" name="Manufacturer Part Number" queryTableFieldId="27" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{F33F2AD8-4829-4043-B615-5B26604A4E10}" uniqueName="6" name="Description" queryTableFieldId="6" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{213B9197-73E6-4A3A-BCF3-2240F52377CD}" uniqueName="7" name="AVAILABILITY" queryTableFieldId="7" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{A8B0EDCB-8702-46D0-A711-8A1D0BD280C5}" uniqueName="8" name="BUILT_BY" queryTableFieldId="8" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{6CAF41E4-8F2C-420C-A21B-64C2A3127CB3}" uniqueName="9" name="COPYRIGHT" queryTableFieldId="9" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{85A1F6FC-DD74-4779-BDC8-9349873F8F6F}" uniqueName="10" name="DESCRIPTION.1" queryTableFieldId="10" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{FC88E6FE-106A-4C46-83A2-B9041CEAE688}" uniqueName="11" name="DESIGNER" queryTableFieldId="11" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{09E21C03-8184-439B-B718-7F5D04555D42}" uniqueName="12" name="DIGI-KEY_PART_NUMBER" queryTableFieldId="12" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{0FBD3F8A-1E59-4D62-BB8A-E594F9C7CFA7}" uniqueName="14" name="MANUFACTURER_PART_NUMBER" queryTableFieldId="14" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{10B58A88-5011-4127-BC00-DC6554CFF74D}" uniqueName="15" name="MF" queryTableFieldId="15" dataDxfId="10"/>
+    <tableColumn id="16" xr3:uid="{D1A26477-FADE-4394-B7D9-9673F65B23AA}" uniqueName="16" name="MP" queryTableFieldId="16" dataDxfId="9"/>
+    <tableColumn id="17" xr3:uid="{62ABE47B-07FF-4FFE-825C-7F3BB21B06FD}" uniqueName="17" name="PACKAGE.1" queryTableFieldId="17" dataDxfId="8"/>
+    <tableColumn id="18" xr3:uid="{3D98CA43-5CB2-4C4D-B9F0-A73B69508FE0}" uniqueName="18" name="PRICE" queryTableFieldId="18" dataDxfId="7"/>
+    <tableColumn id="19" xr3:uid="{23F320B4-AE12-4494-BAC2-CD8E697DD3E0}" uniqueName="19" name="PURCHASE-URL" queryTableFieldId="19" dataDxfId="6"/>
     <tableColumn id="20" xr3:uid="{EBC2985E-FA30-440D-89FC-99F30E77700B}" uniqueName="20" name="REVISION" queryTableFieldId="20"/>
-    <tableColumn id="21" xr3:uid="{C1D928F1-F37D-4354-9B01-BAC5CC99D6BF}" uniqueName="21" name="SOURCELIBRARY" queryTableFieldId="21" dataDxfId="4"/>
-    <tableColumn id="22" xr3:uid="{C8C45E80-371D-4DE8-8851-B6BD11E2A654}" uniqueName="22" name="VENDOR" queryTableFieldId="22" dataDxfId="3"/>
-    <tableColumn id="23" xr3:uid="{79E57817-6E23-4A87-9E66-27C254AF9D8A}" uniqueName="23" name="VERSION" queryTableFieldId="23" dataDxfId="2"/>
-    <tableColumn id="24" xr3:uid="{6F0DCD47-7033-4394-98DD-388485FBBFF0}" uniqueName="24" name="Column1" queryTableFieldId="24" dataDxfId="1"/>
+    <tableColumn id="21" xr3:uid="{C1D928F1-F37D-4354-9B01-BAC5CC99D6BF}" uniqueName="21" name="SOURCELIBRARY" queryTableFieldId="21" dataDxfId="5"/>
+    <tableColumn id="22" xr3:uid="{C8C45E80-371D-4DE8-8851-B6BD11E2A654}" uniqueName="22" name="VENDOR" queryTableFieldId="22" dataDxfId="4"/>
+    <tableColumn id="23" xr3:uid="{79E57817-6E23-4A87-9E66-27C254AF9D8A}" uniqueName="23" name="VERSION" queryTableFieldId="23" dataDxfId="3"/>
+    <tableColumn id="24" xr3:uid="{6F0DCD47-7033-4394-98DD-388485FBBFF0}" uniqueName="24" name="Column1" queryTableFieldId="24" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -894,10 +994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EDAAB29-10D5-49FE-8BAE-024E5E301E76}">
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,27 +1007,27 @@
     <col min="3" max="3" width="55.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.42578125" customWidth="1"/>
-    <col min="7" max="7" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="53.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="72.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.42578125" customWidth="1"/>
-    <col min="15" max="15" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="63" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="32.42578125" customWidth="1"/>
+    <col min="9" max="9" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="53.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="72.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.42578125" customWidth="1"/>
+    <col min="17" max="17" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="63" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -947,61 +1047,67 @@
         <v>12</v>
       </c>
       <c r="G1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
@@ -1021,14 +1127,14 @@
         <v>107</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1059,20 +1165,26 @@
       <c r="S2" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="T2" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="U2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="W2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="Y2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>7</v>
       </c>
@@ -1092,14 +1204,14 @@
         <v>105</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J3" s="1" t="s">
         <v>24</v>
       </c>
@@ -1130,20 +1242,26 @@
       <c r="S3" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="T3" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="U3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="W3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="Y3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1163,14 +1281,14 @@
         <v>108</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1201,20 +1319,26 @@
       <c r="S4" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="T4" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="U4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="W4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="Y4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1233,15 +1357,11 @@
       <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J5" s="1" t="s">
         <v>24</v>
       </c>
@@ -1272,20 +1392,26 @@
       <c r="S5" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="T5" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="U5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="W5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="Y5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1305,14 +1431,14 @@
         <v>109</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J6" s="1" t="s">
         <v>24</v>
       </c>
@@ -1343,20 +1469,26 @@
       <c r="S6" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="T6" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="U6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="W6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="X6" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="Y6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1376,14 +1508,14 @@
         <v>110</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J7" s="1" t="s">
         <v>24</v>
       </c>
@@ -1414,20 +1546,26 @@
       <c r="S7" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="T7" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="U7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="W7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="X7" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="Y7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1447,14 +1585,14 @@
         <v>112</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J8" s="1" t="s">
         <v>24</v>
       </c>
@@ -1485,20 +1623,26 @@
       <c r="S8" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="T8" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="U8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="W8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="X8" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="Y8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1518,14 +1662,14 @@
         <v>111</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1556,20 +1700,26 @@
       <c r="S9" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="T9" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="U9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="W9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="X9" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="Y9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -1589,14 +1739,14 @@
         <v>113</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J10" s="1" t="s">
         <v>24</v>
       </c>
@@ -1627,20 +1777,26 @@
       <c r="S10" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="T10" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="U10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="W10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="X10" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="Y10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1660,58 +1816,64 @@
         <v>71</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="R11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S11" s="1" t="s">
+      <c r="T11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="U11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="W11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="X11" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="Y11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1731,14 +1893,14 @@
         <v>114</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3341</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1769,20 +1931,26 @@
       <c r="S12" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="T12" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="U12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="W12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="X12" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="Y12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1802,58 +1970,64 @@
         <v>115</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="K13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="N13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="O13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="R13" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="S13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="T13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="S13" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="U13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="W13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="X13" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="Y13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1873,20 +2047,20 @@
         <v>116</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="I14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="L14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1894,14 +2068,14 @@
         <v>24</v>
       </c>
       <c r="N14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Q14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1911,20 +2085,26 @@
       <c r="S14" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="T14" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="U14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="X14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="W14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X14" s="1" t="s">
+      <c r="Y14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z14" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1944,35 +2124,35 @@
         <v>117</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="M15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="O15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Q15" s="1" t="s">
         <v>24</v>
       </c>
@@ -1982,23 +2162,29 @@
       <c r="S15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V15">
         <v>4</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="W15" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="X15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="W15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X15" s="1" t="s">
+      <c r="Y15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z15" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2018,14 +2204,14 @@
         <v>118</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J16" s="1" t="s">
         <v>24</v>
       </c>
@@ -2056,20 +2242,26 @@
       <c r="S16" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="T16" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="U16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="W16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="X16" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="Y16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2089,20 +2281,20 @@
         <v>102</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="I17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="L17" s="1" t="s">
         <v>24</v>
       </c>
@@ -2110,14 +2302,14 @@
         <v>24</v>
       </c>
       <c r="N17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="O17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Q17" s="1" t="s">
         <v>24</v>
       </c>
@@ -2127,20 +2319,26 @@
       <c r="S17" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="T17" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="U17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="X17" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="W17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X17" s="1" t="s">
+      <c r="Y17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z17" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2160,14 +2358,14 @@
         <v>29</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J18" s="1" t="s">
         <v>24</v>
       </c>
@@ -2198,20 +2396,26 @@
       <c r="S18" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="T18" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="U18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="W18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="X18" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="Y18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2230,36 +2434,32 @@
       <c r="F21" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="M21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="O21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Q21" s="1" t="s">
         <v>24</v>
       </c>
@@ -2269,26 +2469,33 @@
       <c r="S21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V21">
         <v>2</v>
       </c>
-      <c r="U21" s="1" t="s">
+      <c r="W21" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="X21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="W21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X21" s="1" t="s">
+      <c r="Y21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z21" s="1" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
